--- a/study/RQ2/RQ2_Subset 1.xlsx
+++ b/study/RQ2/RQ2_Subset 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\github\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\github\study\RQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="354">
   <si>
     <t>Reviewer 1</t>
   </si>
@@ -228,9 +228,6 @@
     <t>https://github.com/airbytehq/airbyte/issues/17204</t>
   </si>
   <si>
-    <t>age\b</t>
-  </si>
-  <si>
     <t>https://github.com/airbytehq/airbyte/pull/29753</t>
   </si>
   <si>
@@ -579,9 +576,6 @@
     <t>https://github.com/deepchem/deepchem/pull/516</t>
   </si>
   <si>
-    <t>integration of balanced accuracy score</t>
-  </si>
-  <si>
     <t>Behavioral Bias</t>
   </si>
   <si>
@@ -627,9 +621,6 @@
     <t>https://github.com/deepfakes/faceswap/pull/246</t>
   </si>
   <si>
-    <t>introduction of balanced loss</t>
-  </si>
-  <si>
     <t>Relabeling and Perturbation</t>
   </si>
   <si>
@@ -715,9 +706,6 @@
   </si>
   <si>
     <t>https://github.com/dmlc/dgl/pull/1665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">improvement of a library </t>
   </si>
   <si>
     <t>Sampling Bias</t>
@@ -1200,6 +1188,15 @@
   </si>
   <si>
     <t>In this mitigation methods the corrections are applied to of the output. In particular, the predicted labels are modified.</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1628,6 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1867,13 +1865,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A181" sqref="A181"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="51" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" customWidth="1"/>
@@ -1892,24 +1890,24 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="M1" s="56" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="M1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:18" s="50" customFormat="1" ht="41.4">
       <c r="A2" s="2" t="s">
@@ -1965,9 +1963,8 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B228" si="0">IF(ISERR(FIND("issues",A3)),"PR","Issue")</f>
-        <v>Issue</v>
+      <c r="B3" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>14</v>
@@ -1985,12 +1982,11 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8" t="str">
-        <f t="shared" ref="L3:L228" si="1">IF(H3=D3,"","CONFLICT")</f>
-        <v/>
-      </c>
-      <c r="M3" s="9" t="str">
-        <f t="shared" ref="M3:M37" si="2">IF(L3="",D3,"DA INSERIRE")</f>
-        <v>NO</v>
+        <f t="shared" ref="L3:L228" si="0">IF(H3=D3,"","CONFLICT")</f>
+        <v/>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -2002,9 +1998,8 @@
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B4" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
@@ -2022,12 +2017,11 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M4" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -2039,9 +2033,8 @@
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B5" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
@@ -2059,12 +2052,11 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M5" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -2076,9 +2068,8 @@
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B6" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -2096,12 +2087,11 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M6" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -2113,9 +2103,8 @@
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B7" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>24</v>
@@ -2133,12 +2122,11 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M7" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -2150,9 +2138,8 @@
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B8" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
@@ -2170,12 +2157,11 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M8" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -2187,9 +2173,8 @@
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B9" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>22</v>
@@ -2207,12 +2192,11 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M9" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -2224,9 +2208,8 @@
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B10" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>28</v>
@@ -2244,12 +2227,11 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M10" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -2261,9 +2243,8 @@
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B11" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -2281,12 +2262,11 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M11" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -2294,13 +2274,12 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="41.4">
+    <row r="12" spans="1:18" ht="55.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B12" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
@@ -2318,12 +2297,11 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M12" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -2335,9 +2313,8 @@
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B13" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -2355,12 +2332,11 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M13" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -2372,9 +2348,8 @@
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B14" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -2392,12 +2367,11 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M14" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -2409,9 +2383,8 @@
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B15" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>34</v>
@@ -2429,12 +2402,11 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M15" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -2446,9 +2418,8 @@
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B16" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -2466,12 +2437,11 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M16" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -2483,9 +2453,8 @@
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B17" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -2503,12 +2472,11 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M17" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -2520,9 +2488,8 @@
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B18" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -2540,12 +2507,11 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M18" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -2557,9 +2523,8 @@
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B19" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -2577,12 +2542,11 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M19" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -2590,13 +2554,12 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" ht="41.4">
+    <row r="20" spans="1:18" ht="55.2">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B20" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>40</v>
@@ -2614,12 +2577,11 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M20" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -2631,9 +2593,8 @@
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B21" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
@@ -2651,12 +2612,11 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M21" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -2668,9 +2628,8 @@
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B22" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
@@ -2688,12 +2647,11 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M22" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -2701,13 +2659,12 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:18" ht="41.4">
+    <row r="23" spans="1:18" ht="55.2">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B23" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>40</v>
@@ -2725,12 +2682,11 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M23" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -2738,13 +2694,12 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" spans="1:18" ht="41.4">
+    <row r="24" spans="1:18" ht="55.2">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B24" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
@@ -2762,12 +2717,11 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M24" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -2775,13 +2729,12 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" ht="41.4">
+    <row r="25" spans="1:18" ht="55.2">
       <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B25" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>40</v>
@@ -2799,12 +2752,11 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M25" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -2812,13 +2764,12 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:18" ht="41.4">
+    <row r="26" spans="1:18" ht="55.2">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B26" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>47</v>
@@ -2836,12 +2787,11 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M26" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -2849,13 +2799,12 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:18" ht="41.4">
+    <row r="27" spans="1:18" ht="55.2">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B27" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>40</v>
@@ -2873,12 +2822,11 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M27" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -2886,13 +2834,12 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="1:18" ht="41.4">
+    <row r="28" spans="1:18" ht="55.2">
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B28" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>40</v>
@@ -2910,12 +2857,11 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M28" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -2923,13 +2869,12 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" spans="1:18" ht="41.4">
+    <row r="29" spans="1:18" ht="55.2">
       <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B29" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>40</v>
@@ -2947,12 +2892,11 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M29" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -2964,9 +2908,8 @@
       <c r="A30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B30" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>14</v>
@@ -2984,12 +2927,11 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M30" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -2997,13 +2939,12 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="1:18" ht="41.4">
+    <row r="31" spans="1:18" ht="55.2">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B31" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>34</v>
@@ -3021,12 +2962,11 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M31" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -3038,9 +2978,8 @@
       <c r="A32" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B32" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>24</v>
@@ -3058,12 +2997,11 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M32" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -3075,9 +3013,8 @@
       <c r="A33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B33" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>24</v>
@@ -3095,12 +3032,11 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M33" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -3112,9 +3048,8 @@
       <c r="A34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B34" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>14</v>
@@ -3132,12 +3067,11 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M34" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -3149,9 +3083,8 @@
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B35" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>24</v>
@@ -3169,12 +3102,11 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M35" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -3186,9 +3118,8 @@
       <c r="A36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+      <c r="B36" s="13" t="s">
+        <v>352</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>22</v>
@@ -3218,12 +3149,11 @@
         <v>61</v>
       </c>
       <c r="L36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M36" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>YES</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="N36" s="14" t="s">
         <v>63</v>
@@ -3241,9 +3171,8 @@
       <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B37" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>65</v>
@@ -3261,12 +3190,11 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M37" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -3278,12 +3206,11 @@
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+      <c r="B38" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>67</v>
+        <v>353</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>16</v>
@@ -3298,7 +3225,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>CONFLICT</v>
       </c>
       <c r="M38" s="15" t="s">
@@ -3310,13 +3237,12 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
     </row>
-    <row r="39" spans="1:18" ht="41.4">
+    <row r="39" spans="1:18" ht="55.2">
       <c r="A39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>67</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>28</v>
@@ -3334,12 +3260,11 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M39" s="9" t="str">
-        <f t="shared" ref="M39:M144" si="3">IF(L39="",D39,"DA INSERIRE")</f>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -3347,13 +3272,12 @@
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
     </row>
-    <row r="40" spans="1:18" ht="41.4">
+    <row r="40" spans="1:18" ht="55.2">
       <c r="A40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>68</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>28</v>
@@ -3371,12 +3295,11 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M40" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -3384,13 +3307,12 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:18" ht="41.4">
+    <row r="41" spans="1:18" ht="55.2">
       <c r="A41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>69</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>18</v>
@@ -3408,12 +3330,11 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M41" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
@@ -3423,11 +3344,10 @@
     </row>
     <row r="42" spans="1:18" ht="55.2">
       <c r="A42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>70</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>40</v>
@@ -3445,12 +3365,11 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M42" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
@@ -3460,11 +3379,10 @@
     </row>
     <row r="43" spans="1:18" ht="55.2">
       <c r="A43" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>71</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>28</v>
@@ -3482,12 +3400,11 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M43" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
@@ -3495,13 +3412,12 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="1:18" ht="41.4">
+    <row r="44" spans="1:18" ht="55.2">
       <c r="A44" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>72</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>18</v>
@@ -3519,12 +3435,11 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M44" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
@@ -3532,13 +3447,12 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" spans="1:18" ht="41.4">
+    <row r="45" spans="1:18" ht="55.2">
       <c r="A45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>73</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>18</v>
@@ -3556,12 +3470,11 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M45" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
@@ -3569,13 +3482,12 @@
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:18" ht="41.4">
+    <row r="46" spans="1:18" ht="55.2">
       <c r="A46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B46" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>74</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>18</v>
@@ -3593,12 +3505,11 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M46" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
@@ -3608,11 +3519,10 @@
     </row>
     <row r="47" spans="1:18" ht="55.2">
       <c r="A47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>75</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>40</v>
@@ -3630,12 +3540,11 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M47" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
@@ -3643,13 +3552,12 @@
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" spans="1:18" ht="41.4">
+    <row r="48" spans="1:18" ht="55.2">
       <c r="A48" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>76</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>40</v>
@@ -3667,12 +3575,11 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M48" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
@@ -3680,13 +3587,12 @@
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
     </row>
-    <row r="49" spans="1:18" ht="41.4">
+    <row r="49" spans="1:18" ht="55.2">
       <c r="A49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>77</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>40</v>
@@ -3704,12 +3610,11 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M49" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
@@ -3719,14 +3624,13 @@
     </row>
     <row r="50" spans="1:18" ht="69">
       <c r="A50" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>16</v>
@@ -3741,12 +3645,11 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M50" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
@@ -3756,14 +3659,13 @@
     </row>
     <row r="51" spans="1:18" ht="69">
       <c r="A51" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>80</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>16</v>
@@ -3778,12 +3680,11 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M51" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
@@ -3793,11 +3694,10 @@
     </row>
     <row r="52" spans="1:18" ht="69">
       <c r="A52" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>81</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>34</v>
@@ -3815,12 +3715,11 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M52" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
@@ -3830,11 +3729,10 @@
     </row>
     <row r="53" spans="1:18" ht="41.4">
       <c r="A53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>82</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>14</v>
@@ -3852,12 +3750,11 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M53" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
@@ -3867,11 +3764,10 @@
     </row>
     <row r="54" spans="1:18" ht="41.4">
       <c r="A54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>83</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>34</v>
@@ -3889,12 +3785,11 @@
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M54" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
@@ -3904,11 +3799,10 @@
     </row>
     <row r="55" spans="1:18" ht="41.4">
       <c r="A55" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>84</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>34</v>
@@ -3926,12 +3820,11 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M55" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
@@ -3941,11 +3834,10 @@
     </row>
     <row r="56" spans="1:18" ht="41.4">
       <c r="A56" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>85</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>34</v>
@@ -3963,12 +3855,11 @@
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M56" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
@@ -3978,11 +3869,10 @@
     </row>
     <row r="57" spans="1:18" ht="41.4">
       <c r="A57" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>86</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>34</v>
@@ -4000,12 +3890,11 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M57" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
@@ -4015,11 +3904,10 @@
     </row>
     <row r="58" spans="1:18" ht="41.4">
       <c r="A58" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B58" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>87</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>34</v>
@@ -4037,12 +3925,11 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M58" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
@@ -4052,11 +3939,10 @@
     </row>
     <row r="59" spans="1:18" ht="41.4">
       <c r="A59" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>88</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>34</v>
@@ -4074,12 +3960,11 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
       <c r="L59" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M59" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N59" s="10"/>
       <c r="O59" s="10"/>
@@ -4089,14 +3974,13 @@
     </row>
     <row r="60" spans="1:18" ht="41.4">
       <c r="A60" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>89</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>16</v>
@@ -4111,12 +3995,11 @@
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M60" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
@@ -4126,11 +4009,10 @@
     </row>
     <row r="61" spans="1:18" ht="41.4">
       <c r="A61" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>90</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>34</v>
@@ -4148,12 +4030,11 @@
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M61" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
@@ -4163,11 +4044,10 @@
     </row>
     <row r="62" spans="1:18" ht="41.4">
       <c r="A62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>91</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>34</v>
@@ -4185,12 +4065,11 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M62" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
@@ -4200,11 +4079,10 @@
     </row>
     <row r="63" spans="1:18" ht="41.4">
       <c r="A63" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>92</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>34</v>
@@ -4222,12 +4100,11 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M63" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
@@ -4237,11 +4114,10 @@
     </row>
     <row r="64" spans="1:18" ht="41.4">
       <c r="A64" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>93</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>34</v>
@@ -4259,12 +4135,11 @@
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
       <c r="L64" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M64" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
@@ -4274,11 +4149,10 @@
     </row>
     <row r="65" spans="1:18" ht="41.4">
       <c r="A65" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>94</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>34</v>
@@ -4296,12 +4170,11 @@
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
       <c r="L65" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M65" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
@@ -4311,14 +4184,13 @@
     </row>
     <row r="66" spans="1:18" ht="41.4">
       <c r="A66" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>95</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>16</v>
@@ -4333,12 +4205,11 @@
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M66" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N66" s="10"/>
       <c r="O66" s="10"/>
@@ -4348,14 +4219,13 @@
     </row>
     <row r="67" spans="1:18" ht="41.4">
       <c r="A67" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>96</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>16</v>
@@ -4370,12 +4240,11 @@
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
       <c r="L67" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M67" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N67" s="10"/>
       <c r="O67" s="10"/>
@@ -4385,14 +4254,13 @@
     </row>
     <row r="68" spans="1:18" ht="41.4">
       <c r="A68" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>97</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>16</v>
@@ -4407,12 +4275,11 @@
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M68" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N68" s="10"/>
       <c r="O68" s="10"/>
@@ -4422,14 +4289,13 @@
     </row>
     <row r="69" spans="1:18" ht="41.4">
       <c r="A69" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B69" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>98</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>16</v>
@@ -4444,12 +4310,11 @@
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M69" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N69" s="10"/>
       <c r="O69" s="10"/>
@@ -4459,14 +4324,13 @@
     </row>
     <row r="70" spans="1:18" ht="41.4">
       <c r="A70" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>99</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>16</v>
@@ -4481,12 +4345,11 @@
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
       <c r="L70" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M70" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N70" s="10"/>
       <c r="O70" s="10"/>
@@ -4496,14 +4359,13 @@
     </row>
     <row r="71" spans="1:18" ht="41.4">
       <c r="A71" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>100</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>16</v>
@@ -4518,12 +4380,11 @@
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
       <c r="L71" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M71" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N71" s="10"/>
       <c r="O71" s="10"/>
@@ -4533,14 +4394,13 @@
     </row>
     <row r="72" spans="1:18" ht="41.4">
       <c r="A72" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B72" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>101</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>16</v>
@@ -4555,12 +4415,11 @@
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
       <c r="L72" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M72" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N72" s="10"/>
       <c r="O72" s="10"/>
@@ -4570,14 +4429,13 @@
     </row>
     <row r="73" spans="1:18" ht="41.4">
       <c r="A73" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B73" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>102</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>16</v>
@@ -4592,12 +4450,11 @@
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M73" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N73" s="10"/>
       <c r="O73" s="10"/>
@@ -4607,14 +4464,13 @@
     </row>
     <row r="74" spans="1:18" ht="41.4">
       <c r="A74" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B74" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>103</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>16</v>
@@ -4629,12 +4485,11 @@
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M74" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N74" s="10"/>
       <c r="O74" s="10"/>
@@ -4644,14 +4499,13 @@
     </row>
     <row r="75" spans="1:18" ht="41.4">
       <c r="A75" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B75" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>104</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>16</v>
@@ -4666,12 +4520,11 @@
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M75" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N75" s="10"/>
       <c r="O75" s="10"/>
@@ -4681,14 +4534,13 @@
     </row>
     <row r="76" spans="1:18" ht="41.4">
       <c r="A76" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>105</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>16</v>
@@ -4703,12 +4555,11 @@
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
       <c r="L76" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M76" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N76" s="10"/>
       <c r="O76" s="10"/>
@@ -4718,14 +4569,13 @@
     </row>
     <row r="77" spans="1:18" ht="41.4">
       <c r="A77" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>106</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>16</v>
@@ -4740,12 +4590,11 @@
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M77" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N77" s="10"/>
       <c r="O77" s="10"/>
@@ -4755,14 +4604,13 @@
     </row>
     <row r="78" spans="1:18" ht="41.4">
       <c r="A78" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>107</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>16</v>
@@ -4777,12 +4625,11 @@
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M78" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N78" s="10"/>
       <c r="O78" s="10"/>
@@ -4792,14 +4639,13 @@
     </row>
     <row r="79" spans="1:18" ht="41.4">
       <c r="A79" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>108</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>16</v>
@@ -4814,12 +4660,11 @@
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
       <c r="L79" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M79" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N79" s="10"/>
       <c r="O79" s="10"/>
@@ -4829,14 +4674,13 @@
     </row>
     <row r="80" spans="1:18" ht="41.4">
       <c r="A80" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>109</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>16</v>
@@ -4851,12 +4695,11 @@
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
       <c r="L80" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M80" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N80" s="10"/>
       <c r="O80" s="10"/>
@@ -4866,11 +4709,10 @@
     </row>
     <row r="81" spans="1:18" ht="41.4">
       <c r="A81" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>110</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C81" s="19" t="s">
         <v>14</v>
@@ -4888,12 +4730,11 @@
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M81" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="10"/>
@@ -4903,14 +4744,13 @@
     </row>
     <row r="82" spans="1:18" ht="41.4">
       <c r="A82" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>111</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>16</v>
@@ -4925,12 +4765,11 @@
       <c r="J82" s="7"/>
       <c r="K82" s="7"/>
       <c r="L82" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M82" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N82" s="10"/>
       <c r="O82" s="10"/>
@@ -4940,14 +4779,13 @@
     </row>
     <row r="83" spans="1:18" ht="41.4">
       <c r="A83" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>112</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>16</v>
@@ -4962,12 +4800,11 @@
       <c r="J83" s="7"/>
       <c r="K83" s="7"/>
       <c r="L83" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M83" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N83" s="10"/>
       <c r="O83" s="10"/>
@@ -4977,14 +4814,13 @@
     </row>
     <row r="84" spans="1:18" ht="41.4">
       <c r="A84" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>113</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>16</v>
@@ -4999,12 +4835,11 @@
       <c r="J84" s="7"/>
       <c r="K84" s="7"/>
       <c r="L84" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M84" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N84" s="10"/>
       <c r="O84" s="10"/>
@@ -5014,14 +4849,13 @@
     </row>
     <row r="85" spans="1:18" ht="41.4">
       <c r="A85" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B85" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>114</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>16</v>
@@ -5036,12 +4870,11 @@
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M85" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N85" s="10"/>
       <c r="O85" s="10"/>
@@ -5051,14 +4884,13 @@
     </row>
     <row r="86" spans="1:18" ht="41.4">
       <c r="A86" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>115</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>16</v>
@@ -5073,12 +4905,11 @@
       <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M86" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M86" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N86" s="10"/>
       <c r="O86" s="10"/>
@@ -5088,11 +4919,10 @@
     </row>
     <row r="87" spans="1:18" ht="41.4">
       <c r="A87" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>116</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>34</v>
@@ -5110,12 +4940,11 @@
       <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M87" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N87" s="10"/>
       <c r="O87" s="10"/>
@@ -5125,14 +4954,13 @@
     </row>
     <row r="88" spans="1:18" ht="41.4">
       <c r="A88" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>117</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>16</v>
@@ -5147,12 +4975,11 @@
       <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M88" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M88" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N88" s="10"/>
       <c r="O88" s="10"/>
@@ -5162,14 +4989,13 @@
     </row>
     <row r="89" spans="1:18" ht="41.4">
       <c r="A89" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>118</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>16</v>
@@ -5184,12 +5010,11 @@
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
       <c r="L89" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M89" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N89" s="10"/>
       <c r="O89" s="10"/>
@@ -5199,14 +5024,13 @@
     </row>
     <row r="90" spans="1:18" ht="41.4">
       <c r="A90" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B90" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>119</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>16</v>
@@ -5221,12 +5045,11 @@
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
       <c r="L90" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M90" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N90" s="10"/>
       <c r="O90" s="10"/>
@@ -5236,14 +5059,13 @@
     </row>
     <row r="91" spans="1:18" ht="41.4">
       <c r="A91" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>120</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>16</v>
@@ -5258,12 +5080,11 @@
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M91" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N91" s="10"/>
       <c r="O91" s="10"/>
@@ -5273,11 +5094,10 @@
     </row>
     <row r="92" spans="1:18" ht="41.4">
       <c r="A92" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>121</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C92" s="19" t="s">
         <v>14</v>
@@ -5295,12 +5115,11 @@
       <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M92" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N92" s="10"/>
       <c r="O92" s="10"/>
@@ -5310,11 +5129,10 @@
     </row>
     <row r="93" spans="1:18" ht="55.2">
       <c r="A93" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B93" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>122</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C93" s="19" t="s">
         <v>22</v>
@@ -5323,10 +5141,10 @@
         <v>58</v>
       </c>
       <c r="E93" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>61</v>
@@ -5335,27 +5153,26 @@
         <v>58</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L93" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M93" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="N93" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O93" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P93" s="15" t="s">
         <v>61</v>
@@ -5365,11 +5182,10 @@
     </row>
     <row r="94" spans="1:18" ht="55.2">
       <c r="A94" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B94" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>126</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>22</v>
@@ -5378,10 +5194,10 @@
         <v>58</v>
       </c>
       <c r="E94" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>61</v>
@@ -5390,27 +5206,26 @@
         <v>58</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>61</v>
       </c>
       <c r="L94" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M94" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="N94" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O94" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P94" s="15" t="s">
         <v>61</v>
@@ -5420,14 +5235,13 @@
     </row>
     <row r="95" spans="1:18" ht="41.4">
       <c r="A95" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B95" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>127</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>16</v>
@@ -5442,12 +5256,11 @@
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
       <c r="L95" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M95" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M95" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N95" s="10"/>
       <c r="O95" s="10"/>
@@ -5457,11 +5270,10 @@
     </row>
     <row r="96" spans="1:18" ht="41.4">
       <c r="A96" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>128</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>18</v>
@@ -5479,12 +5291,11 @@
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M96" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N96" s="10"/>
       <c r="O96" s="10"/>
@@ -5494,14 +5305,13 @@
     </row>
     <row r="97" spans="1:18" ht="41.4">
       <c r="A97" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B97" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>129</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>16</v>
@@ -5516,12 +5326,11 @@
       <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M97" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N97" s="10"/>
       <c r="O97" s="10"/>
@@ -5531,11 +5340,10 @@
     </row>
     <row r="98" spans="1:18" ht="41.4">
       <c r="A98" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B98" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>130</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>14</v>
@@ -5553,12 +5361,11 @@
       <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M98" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N98" s="10"/>
       <c r="O98" s="10"/>
@@ -5568,11 +5375,10 @@
     </row>
     <row r="99" spans="1:18" ht="41.4">
       <c r="A99" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B99" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>131</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>34</v>
@@ -5590,12 +5396,11 @@
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
       <c r="L99" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M99" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N99" s="10"/>
       <c r="O99" s="10"/>
@@ -5605,11 +5410,10 @@
     </row>
     <row r="100" spans="1:18" ht="41.4">
       <c r="A100" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B100" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>132</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>34</v>
@@ -5627,12 +5431,11 @@
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
       <c r="L100" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M100" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N100" s="10"/>
       <c r="O100" s="10"/>
@@ -5642,11 +5445,10 @@
     </row>
     <row r="101" spans="1:18" ht="41.4">
       <c r="A101" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B101" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>133</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>14</v>
@@ -5664,12 +5466,11 @@
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
       <c r="L101" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M101" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N101" s="10"/>
       <c r="O101" s="10"/>
@@ -5679,11 +5480,10 @@
     </row>
     <row r="102" spans="1:18" ht="41.4">
       <c r="A102" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B102" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>134</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>34</v>
@@ -5701,12 +5501,11 @@
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
       <c r="L102" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M102" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N102" s="10"/>
       <c r="O102" s="10"/>
@@ -5716,11 +5515,10 @@
     </row>
     <row r="103" spans="1:18" ht="41.4">
       <c r="A103" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B103" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>135</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>14</v>
@@ -5738,12 +5536,11 @@
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
       <c r="L103" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M103" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N103" s="10"/>
       <c r="O103" s="10"/>
@@ -5753,14 +5550,13 @@
     </row>
     <row r="104" spans="1:18" ht="41.4">
       <c r="A104" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B104" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>136</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>16</v>
@@ -5775,12 +5571,11 @@
       <c r="J104" s="7"/>
       <c r="K104" s="7"/>
       <c r="L104" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M104" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N104" s="10"/>
       <c r="O104" s="10"/>
@@ -5790,11 +5585,10 @@
     </row>
     <row r="105" spans="1:18" ht="41.4">
       <c r="A105" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B105" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>137</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C105" s="19" t="s">
         <v>18</v>
@@ -5812,12 +5606,11 @@
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
       <c r="L105" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M105" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N105" s="10"/>
       <c r="O105" s="10"/>
@@ -5827,11 +5620,10 @@
     </row>
     <row r="106" spans="1:18" ht="41.4">
       <c r="A106" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B106" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>138</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C106" s="19" t="s">
         <v>14</v>
@@ -5849,12 +5641,11 @@
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
       <c r="L106" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M106" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N106" s="10"/>
       <c r="O106" s="10"/>
@@ -5864,14 +5655,13 @@
     </row>
     <row r="107" spans="1:18" ht="41.4">
       <c r="A107" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B107" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>139</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>16</v>
@@ -5886,12 +5676,11 @@
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
       <c r="L107" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M107" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N107" s="10"/>
       <c r="O107" s="10"/>
@@ -5901,11 +5690,10 @@
     </row>
     <row r="108" spans="1:18" ht="41.4">
       <c r="A108" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B108" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>140</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C108" s="19" t="s">
         <v>14</v>
@@ -5923,12 +5711,11 @@
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
       <c r="L108" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M108" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M108" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N108" s="10"/>
       <c r="O108" s="10"/>
@@ -5938,14 +5725,13 @@
     </row>
     <row r="109" spans="1:18" ht="41.4">
       <c r="A109" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>141</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>16</v>
@@ -5960,12 +5746,11 @@
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
       <c r="L109" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M109" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N109" s="10"/>
       <c r="O109" s="10"/>
@@ -5975,14 +5760,13 @@
     </row>
     <row r="110" spans="1:18" ht="41.4">
       <c r="A110" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>142</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>16</v>
@@ -5997,12 +5781,11 @@
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
       <c r="L110" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M110" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N110" s="10"/>
       <c r="O110" s="10"/>
@@ -6012,14 +5795,13 @@
     </row>
     <row r="111" spans="1:18" ht="41.4">
       <c r="A111" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B111" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>143</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>16</v>
@@ -6034,12 +5816,11 @@
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
       <c r="L111" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M111" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M111" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N111" s="10"/>
       <c r="O111" s="10"/>
@@ -6049,14 +5830,13 @@
     </row>
     <row r="112" spans="1:18" ht="41.4">
       <c r="A112" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B112" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>144</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>16</v>
@@ -6071,12 +5851,11 @@
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
       <c r="L112" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M112" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M112" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N112" s="10"/>
       <c r="O112" s="10"/>
@@ -6086,11 +5865,10 @@
     </row>
     <row r="113" spans="1:18" ht="41.4">
       <c r="A113" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B113" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>145</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>34</v>
@@ -6108,12 +5886,11 @@
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
       <c r="L113" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M113" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N113" s="10"/>
       <c r="O113" s="10"/>
@@ -6123,14 +5900,13 @@
     </row>
     <row r="114" spans="1:18" ht="41.4">
       <c r="A114" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B114" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>146</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>16</v>
@@ -6145,12 +5921,11 @@
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
       <c r="L114" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M114" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M114" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N114" s="10"/>
       <c r="O114" s="10"/>
@@ -6160,14 +5935,13 @@
     </row>
     <row r="115" spans="1:18" ht="41.4">
       <c r="A115" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B115" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>147</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>16</v>
@@ -6182,12 +5956,11 @@
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
       <c r="L115" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M115" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M115" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N115" s="10"/>
       <c r="O115" s="10"/>
@@ -6197,11 +5970,10 @@
     </row>
     <row r="116" spans="1:18" ht="41.4">
       <c r="A116" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B116" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>148</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C116" s="19" t="s">
         <v>34</v>
@@ -6219,12 +5991,11 @@
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
       <c r="L116" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M116" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M116" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N116" s="10"/>
       <c r="O116" s="10"/>
@@ -6234,11 +6005,10 @@
     </row>
     <row r="117" spans="1:18" ht="41.4">
       <c r="A117" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B117" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>149</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C117" s="19" t="s">
         <v>34</v>
@@ -6256,12 +6026,11 @@
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
       <c r="L117" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M117" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M117" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N117" s="10"/>
       <c r="O117" s="10"/>
@@ -6271,11 +6040,10 @@
     </row>
     <row r="118" spans="1:18" ht="41.4">
       <c r="A118" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B118" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>150</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C118" s="19" t="s">
         <v>34</v>
@@ -6293,12 +6061,11 @@
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
       <c r="L118" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M118" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M118" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N118" s="10"/>
       <c r="O118" s="10"/>
@@ -6308,11 +6075,10 @@
     </row>
     <row r="119" spans="1:18" ht="41.4">
       <c r="A119" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B119" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>151</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C119" s="19" t="s">
         <v>34</v>
@@ -6330,12 +6096,11 @@
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
       <c r="L119" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M119" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N119" s="10"/>
       <c r="O119" s="10"/>
@@ -6345,14 +6110,13 @@
     </row>
     <row r="120" spans="1:18" ht="41.4">
       <c r="A120" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B120" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>152</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>16</v>
@@ -6367,12 +6131,11 @@
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
       <c r="L120" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M120" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N120" s="10"/>
       <c r="O120" s="10"/>
@@ -6382,11 +6145,10 @@
     </row>
     <row r="121" spans="1:18" ht="41.4">
       <c r="A121" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B121" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>153</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>22</v>
@@ -6404,12 +6166,11 @@
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
       <c r="L121" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M121" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N121" s="10"/>
       <c r="O121" s="10"/>
@@ -6419,11 +6180,10 @@
     </row>
     <row r="122" spans="1:18" ht="82.8">
       <c r="A122" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B122" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>154</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C122" s="19" t="s">
         <v>18</v>
@@ -6441,12 +6201,11 @@
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
       <c r="L122" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M122" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M122" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N122" s="10"/>
       <c r="O122" s="10"/>
@@ -6456,66 +6215,63 @@
     </row>
     <row r="123" spans="1:18" ht="69">
       <c r="A123" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C123" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="B123" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
-      </c>
-      <c r="C123" s="19" t="s">
-        <v>157</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E123" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="G123" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J123" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K123" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="K123" s="6" t="s">
+      <c r="L123" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M123" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N123" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="L123" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M123" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>YES</v>
-      </c>
-      <c r="N123" s="15" t="s">
-        <v>161</v>
-      </c>
       <c r="O123" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="P123" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="P123" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="Q123" s="11"/>
       <c r="R123" s="11"/>
     </row>
     <row r="124" spans="1:18" ht="69">
       <c r="A124" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B124" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>161</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C124" s="19" t="s">
         <v>47</v>
@@ -6533,12 +6289,11 @@
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
       <c r="L124" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M124" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M124" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N124" s="10"/>
       <c r="O124" s="10"/>
@@ -6548,11 +6303,10 @@
     </row>
     <row r="125" spans="1:18" ht="82.8">
       <c r="A125" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B125" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>162</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C125" s="19" t="s">
         <v>47</v>
@@ -6570,12 +6324,11 @@
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
       <c r="L125" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M125" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M125" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N125" s="10"/>
       <c r="O125" s="10"/>
@@ -6585,11 +6338,10 @@
     </row>
     <row r="126" spans="1:18" ht="82.8">
       <c r="A126" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>163</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C126" s="19" t="s">
         <v>47</v>
@@ -6607,12 +6359,11 @@
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
       <c r="L126" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M126" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N126" s="10"/>
       <c r="O126" s="10"/>
@@ -6622,11 +6373,10 @@
     </row>
     <row r="127" spans="1:18" ht="82.8">
       <c r="A127" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B127" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>164</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C127" s="19" t="s">
         <v>47</v>
@@ -6644,12 +6394,11 @@
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
       <c r="L127" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M127" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M127" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N127" s="10"/>
       <c r="O127" s="10"/>
@@ -6659,11 +6408,10 @@
     </row>
     <row r="128" spans="1:18" ht="82.8">
       <c r="A128" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B128" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>165</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C128" s="19" t="s">
         <v>47</v>
@@ -6681,12 +6429,11 @@
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
       <c r="L128" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M128" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M128" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N128" s="10"/>
       <c r="O128" s="10"/>
@@ -6696,11 +6443,10 @@
     </row>
     <row r="129" spans="1:18" ht="82.8">
       <c r="A129" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B129" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>166</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C129" s="19" t="s">
         <v>47</v>
@@ -6718,12 +6464,11 @@
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
       <c r="L129" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M129" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M129" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N129" s="10"/>
       <c r="O129" s="10"/>
@@ -6733,14 +6478,13 @@
     </row>
     <row r="130" spans="1:18" ht="82.8">
       <c r="A130" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B130" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>167</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>16</v>
@@ -6755,12 +6499,11 @@
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
       <c r="L130" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M130" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M130" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N130" s="10"/>
       <c r="O130" s="10"/>
@@ -6770,14 +6513,13 @@
     </row>
     <row r="131" spans="1:18" ht="82.8">
       <c r="A131" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B131" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>168</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>16</v>
@@ -6792,12 +6534,11 @@
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M131" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N131" s="10"/>
       <c r="O131" s="10"/>
@@ -6807,11 +6548,10 @@
     </row>
     <row r="132" spans="1:18" ht="82.8">
       <c r="A132" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B132" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>169</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>47</v>
@@ -6829,12 +6569,11 @@
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
       <c r="L132" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M132" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M132" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N132" s="10"/>
       <c r="O132" s="10"/>
@@ -6844,11 +6583,10 @@
     </row>
     <row r="133" spans="1:18" ht="82.8">
       <c r="A133" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B133" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>170</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>47</v>
@@ -6866,12 +6604,11 @@
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
       <c r="L133" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M133" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N133" s="10"/>
       <c r="O133" s="10"/>
@@ -6881,11 +6618,10 @@
     </row>
     <row r="134" spans="1:18" ht="82.8">
       <c r="A134" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B134" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>171</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C134" s="19" t="s">
         <v>47</v>
@@ -6903,12 +6639,11 @@
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
       <c r="L134" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M134" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M134" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N134" s="10"/>
       <c r="O134" s="10"/>
@@ -6918,14 +6653,13 @@
     </row>
     <row r="135" spans="1:18" ht="82.8">
       <c r="A135" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B135" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>172</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>16</v>
@@ -6940,12 +6674,11 @@
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
       <c r="L135" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M135" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N135" s="10"/>
       <c r="O135" s="10"/>
@@ -6955,11 +6688,10 @@
     </row>
     <row r="136" spans="1:18" ht="82.8">
       <c r="A136" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B136" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>173</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C136" s="19" t="s">
         <v>47</v>
@@ -6977,12 +6709,11 @@
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
       <c r="L136" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M136" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M136" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N136" s="10"/>
       <c r="O136" s="10"/>
@@ -6992,11 +6723,10 @@
     </row>
     <row r="137" spans="1:18" ht="82.8">
       <c r="A137" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B137" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>174</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>47</v>
@@ -7014,12 +6744,11 @@
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
       <c r="L137" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M137" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M137" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N137" s="10"/>
       <c r="O137" s="10"/>
@@ -7029,14 +6758,13 @@
     </row>
     <row r="138" spans="1:18" ht="82.8">
       <c r="A138" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B138" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>175</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>16</v>
@@ -7051,12 +6779,11 @@
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M138" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M138" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N138" s="10"/>
       <c r="O138" s="10"/>
@@ -7066,11 +6793,10 @@
     </row>
     <row r="139" spans="1:18" ht="82.8">
       <c r="A139" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B139" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>176</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C139" s="19" t="s">
         <v>14</v>
@@ -7088,12 +6814,11 @@
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
       <c r="L139" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M139" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N139" s="10"/>
       <c r="O139" s="10"/>
@@ -7103,11 +6828,10 @@
     </row>
     <row r="140" spans="1:18" ht="82.8">
       <c r="A140" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B140" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>177</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C140" s="19" t="s">
         <v>47</v>
@@ -7125,12 +6849,11 @@
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
       <c r="L140" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M140" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M140" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N140" s="10"/>
       <c r="O140" s="10"/>
@@ -7140,14 +6863,13 @@
     </row>
     <row r="141" spans="1:18" ht="82.8">
       <c r="A141" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B141" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>178</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>16</v>
@@ -7162,12 +6884,11 @@
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
       <c r="L141" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M141" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N141" s="10"/>
       <c r="O141" s="10"/>
@@ -7177,11 +6898,10 @@
     </row>
     <row r="142" spans="1:18" ht="82.8">
       <c r="A142" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B142" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>179</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C142" s="19" t="s">
         <v>47</v>
@@ -7199,12 +6919,11 @@
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
       <c r="L142" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M142" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M142" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N142" s="10"/>
       <c r="O142" s="10"/>
@@ -7214,14 +6933,13 @@
     </row>
     <row r="143" spans="1:18" ht="82.8">
       <c r="A143" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B143" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>180</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>16</v>
@@ -7236,12 +6954,11 @@
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M143" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M143" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N143" s="10"/>
       <c r="O143" s="10"/>
@@ -7251,14 +6968,13 @@
     </row>
     <row r="144" spans="1:18" ht="69">
       <c r="A144" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B144" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>181</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>16</v>
@@ -7273,12 +6989,11 @@
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
       <c r="L144" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M144" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M144" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N144" s="10"/>
       <c r="O144" s="10"/>
@@ -7288,11 +7003,10 @@
     </row>
     <row r="145" spans="1:18" ht="55.2">
       <c r="A145" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="B145" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>182</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>352</v>
       </c>
       <c r="C145" s="19" t="s">
         <v>18</v>
@@ -7300,15 +7014,9 @@
       <c r="D145" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E145" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="F145" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G145" s="16" t="s">
-        <v>186</v>
-      </c>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
       <c r="H145" s="17" t="s">
         <v>16</v>
       </c>
@@ -7316,31 +7024,30 @@
       <c r="J145" s="18"/>
       <c r="K145" s="18"/>
       <c r="L145" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>CONFLICT</v>
       </c>
       <c r="M145" s="15" t="s">
         <v>58</v>
       </c>
       <c r="N145" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O145" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P145" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q145" s="11"/>
       <c r="R145" s="11"/>
     </row>
     <row r="146" spans="1:18" ht="55.2">
       <c r="A146" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B146" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>187</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C146" s="19" t="s">
         <v>47</v>
@@ -7358,12 +7065,11 @@
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
       <c r="L146" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M146" s="9" t="str">
-        <f t="shared" ref="M146:M154" si="4">IF(L146="",D146,"DA INSERIRE")</f>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M146" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N146" s="10"/>
       <c r="O146" s="10"/>
@@ -7373,14 +7079,13 @@
     </row>
     <row r="147" spans="1:18" ht="55.2">
       <c r="A147" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B147" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>188</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>16</v>
@@ -7395,12 +7100,11 @@
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
       <c r="L147" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M147" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M147" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N147" s="10"/>
       <c r="O147" s="10"/>
@@ -7410,14 +7114,13 @@
     </row>
     <row r="148" spans="1:18" ht="55.2">
       <c r="A148" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B148" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>189</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>16</v>
@@ -7432,12 +7135,11 @@
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
       <c r="L148" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M148" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M148" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N148" s="10"/>
       <c r="O148" s="10"/>
@@ -7447,11 +7149,10 @@
     </row>
     <row r="149" spans="1:18" ht="55.2">
       <c r="A149" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B149" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>191</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C149" s="19" t="s">
         <v>18</v>
@@ -7469,12 +7170,11 @@
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
       <c r="L149" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M149" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M149" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N149" s="10"/>
       <c r="O149" s="10"/>
@@ -7484,11 +7184,10 @@
     </row>
     <row r="150" spans="1:18" ht="55.2">
       <c r="A150" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B150" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>192</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C150" s="19" t="s">
         <v>18</v>
@@ -7506,12 +7205,11 @@
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
       <c r="L150" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M150" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M150" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N150" s="10"/>
       <c r="O150" s="10"/>
@@ -7521,14 +7219,13 @@
     </row>
     <row r="151" spans="1:18" ht="55.2">
       <c r="A151" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B151" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>193</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>16</v>
@@ -7543,12 +7240,11 @@
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
       <c r="L151" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M151" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M151" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N151" s="10"/>
       <c r="O151" s="10"/>
@@ -7558,14 +7254,13 @@
     </row>
     <row r="152" spans="1:18" ht="55.2">
       <c r="A152" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B152" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>194</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>16</v>
@@ -7580,12 +7275,11 @@
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
       <c r="L152" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M152" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M152" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N152" s="10"/>
       <c r="O152" s="10"/>
@@ -7595,14 +7289,13 @@
     </row>
     <row r="153" spans="1:18" ht="55.2">
       <c r="A153" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B153" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>195</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>16</v>
@@ -7617,12 +7310,11 @@
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
       <c r="L153" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M153" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M153" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N153" s="10"/>
       <c r="O153" s="10"/>
@@ -7632,14 +7324,13 @@
     </row>
     <row r="154" spans="1:18" ht="55.2">
       <c r="A154" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B154" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>196</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>16</v>
@@ -7654,12 +7345,11 @@
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
       <c r="L154" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M154" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M154" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N154" s="10"/>
       <c r="O154" s="10"/>
@@ -7669,11 +7359,10 @@
     </row>
     <row r="155" spans="1:18" ht="41.4">
       <c r="A155" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B155" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>197</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C155" s="19" t="s">
         <v>18</v>
@@ -7681,15 +7370,9 @@
       <c r="D155" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E155" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F155" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G155" s="16" t="s">
-        <v>201</v>
-      </c>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
       <c r="H155" s="17" t="s">
         <v>16</v>
       </c>
@@ -7697,86 +7380,83 @@
       <c r="J155" s="18"/>
       <c r="K155" s="18"/>
       <c r="L155" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>CONFLICT</v>
       </c>
       <c r="M155" s="15" t="s">
         <v>58</v>
       </c>
       <c r="N155" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O155" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="P155" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="P155" s="15" t="s">
-        <v>160</v>
       </c>
       <c r="Q155" s="11"/>
       <c r="R155" s="11"/>
     </row>
     <row r="156" spans="1:18" ht="55.2">
       <c r="A156" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B156" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>200</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H156" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L156" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M156" s="9" t="str">
-        <f t="shared" ref="M156:M175" si="5">IF(L156="",D156,"DA INSERIRE")</f>
-        <v>YES</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M156" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="N156" s="21" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O156" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P156" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q156" s="11"/>
       <c r="R156" s="11"/>
     </row>
     <row r="157" spans="1:18" ht="55.2">
       <c r="A157" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B157" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>205</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C157" s="19" t="s">
         <v>47</v>
@@ -7794,12 +7474,11 @@
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
       <c r="L157" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M157" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M157" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N157" s="10"/>
       <c r="O157" s="10"/>
@@ -7809,11 +7488,10 @@
     </row>
     <row r="158" spans="1:18" ht="41.4">
       <c r="A158" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B158" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>206</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C158" s="19" t="s">
         <v>18</v>
@@ -7831,12 +7509,11 @@
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
       <c r="L158" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M158" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M158" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N158" s="10"/>
       <c r="O158" s="10"/>
@@ -7846,14 +7523,13 @@
     </row>
     <row r="159" spans="1:18" ht="55.2">
       <c r="A159" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B159" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>207</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>16</v>
@@ -7868,12 +7544,11 @@
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
       <c r="L159" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M159" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M159" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N159" s="10"/>
       <c r="O159" s="10"/>
@@ -7883,11 +7558,10 @@
     </row>
     <row r="160" spans="1:18" ht="55.2">
       <c r="A160" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B160" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>208</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>34</v>
@@ -7905,12 +7579,11 @@
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
       <c r="L160" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M160" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M160" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N160" s="10"/>
       <c r="O160" s="10"/>
@@ -7920,11 +7593,10 @@
     </row>
     <row r="161" spans="1:18" ht="55.2">
       <c r="A161" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B161" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>209</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C161" s="19" t="s">
         <v>47</v>
@@ -7942,12 +7614,11 @@
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
       <c r="L161" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M161" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M161" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N161" s="10"/>
       <c r="O161" s="10"/>
@@ -7957,11 +7628,10 @@
     </row>
     <row r="162" spans="1:18" ht="55.2">
       <c r="A162" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B162" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>210</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>34</v>
@@ -7979,12 +7649,11 @@
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
       <c r="L162" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M162" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M162" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N162" s="10"/>
       <c r="O162" s="10"/>
@@ -7994,11 +7663,10 @@
     </row>
     <row r="163" spans="1:18" ht="55.2">
       <c r="A163" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B163" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>211</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C163" s="19" t="s">
         <v>14</v>
@@ -8016,12 +7684,11 @@
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
       <c r="L163" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M163" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M163" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N163" s="10"/>
       <c r="O163" s="10"/>
@@ -8031,67 +7698,66 @@
     </row>
     <row r="164" spans="1:18" ht="69">
       <c r="A164" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B164" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>212</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H164" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K164" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>184</v>
+      </c>
       <c r="L164" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M164" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>YES</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M164" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="N164" s="22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O164" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P164" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q164" s="11"/>
       <c r="R164" s="11"/>
     </row>
     <row r="165" spans="1:18" ht="55.2">
       <c r="A165" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B165" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>215</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>16</v>
@@ -8106,12 +7772,11 @@
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M165" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M165" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N165" s="10"/>
       <c r="O165" s="10"/>
@@ -8121,14 +7786,13 @@
     </row>
     <row r="166" spans="1:18" ht="55.2">
       <c r="A166" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="B166" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>216</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>16</v>
@@ -8143,12 +7807,11 @@
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M166" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M166" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N166" s="10"/>
       <c r="O166" s="10"/>
@@ -8158,11 +7821,10 @@
     </row>
     <row r="167" spans="1:18" ht="55.2">
       <c r="A167" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B167" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>217</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C167" s="19" t="s">
         <v>34</v>
@@ -8180,12 +7842,11 @@
       <c r="J167" s="7"/>
       <c r="K167" s="7"/>
       <c r="L167" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M167" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M167" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N167" s="10"/>
       <c r="O167" s="10"/>
@@ -8195,11 +7856,10 @@
     </row>
     <row r="168" spans="1:18" ht="55.2">
       <c r="A168" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B168" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>218</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C168" s="19" t="s">
         <v>34</v>
@@ -8217,12 +7877,11 @@
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
       <c r="L168" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M168" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M168" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N168" s="10"/>
       <c r="O168" s="10"/>
@@ -8232,11 +7891,10 @@
     </row>
     <row r="169" spans="1:18" ht="55.2">
       <c r="A169" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B169" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>219</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C169" s="19" t="s">
         <v>28</v>
@@ -8254,12 +7912,11 @@
       <c r="J169" s="7"/>
       <c r="K169" s="7"/>
       <c r="L169" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M169" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M169" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N169" s="10"/>
       <c r="O169" s="10"/>
@@ -8269,14 +7926,13 @@
     </row>
     <row r="170" spans="1:18" ht="55.2">
       <c r="A170" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B170" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>220</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>16</v>
@@ -8291,12 +7947,11 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
       <c r="L170" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M170" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M170" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N170" s="10"/>
       <c r="O170" s="10"/>
@@ -8306,11 +7961,10 @@
     </row>
     <row r="171" spans="1:18" ht="55.2">
       <c r="A171" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B171" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>221</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C171" s="19" t="s">
         <v>47</v>
@@ -8328,12 +7982,11 @@
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M171" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N171" s="10"/>
       <c r="O171" s="10"/>
@@ -8343,14 +7996,13 @@
     </row>
     <row r="172" spans="1:18" ht="55.2">
       <c r="A172" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B172" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>222</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>16</v>
@@ -8365,12 +8017,11 @@
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
       <c r="L172" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M172" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M172" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N172" s="10"/>
       <c r="O172" s="10"/>
@@ -8380,14 +8031,13 @@
     </row>
     <row r="173" spans="1:18" ht="55.2">
       <c r="A173" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B173" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>223</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>16</v>
@@ -8402,12 +8052,11 @@
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
       <c r="L173" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M173" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M173" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N173" s="10"/>
       <c r="O173" s="10"/>
@@ -8417,11 +8066,10 @@
     </row>
     <row r="174" spans="1:18" ht="41.4">
       <c r="A174" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B174" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>224</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C174" s="19" t="s">
         <v>18</v>
@@ -8439,12 +8087,11 @@
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M174" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M174" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N174" s="10"/>
       <c r="O174" s="10"/>
@@ -8454,11 +8101,10 @@
     </row>
     <row r="175" spans="1:18" ht="41.4">
       <c r="A175" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B175" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>225</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C175" s="19" t="s">
         <v>18</v>
@@ -8476,12 +8122,11 @@
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M175" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M175" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N175" s="10"/>
       <c r="O175" s="10"/>
@@ -8491,27 +8136,20 @@
     </row>
     <row r="176" spans="1:18" ht="41.4">
       <c r="A176" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B176" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>226</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E176" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F176" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="G176" s="16" t="s">
-        <v>232</v>
-      </c>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
       <c r="H176" s="17" t="s">
         <v>16</v>
       </c>
@@ -8519,34 +8157,33 @@
       <c r="J176" s="18"/>
       <c r="K176" s="18"/>
       <c r="L176" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>CONFLICT</v>
       </c>
       <c r="M176" s="15" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N176" s="15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O176" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P176" s="23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q176" s="11"/>
       <c r="R176" s="11"/>
     </row>
     <row r="177" spans="1:18" ht="41.4">
       <c r="A177" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B177" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>231</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>16</v>
@@ -8561,12 +8198,11 @@
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
       <c r="L177" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M177" s="9" t="str">
-        <f t="shared" ref="M177:M194" si="6">IF(L177="",D177,"DA INSERIRE")</f>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N177" s="10"/>
       <c r="O177" s="10"/>
@@ -8576,14 +8212,13 @@
     </row>
     <row r="178" spans="1:18" ht="41.4">
       <c r="A178" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B178" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>232</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>16</v>
@@ -8598,12 +8233,11 @@
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
       <c r="L178" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M178" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M178" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N178" s="10"/>
       <c r="O178" s="10"/>
@@ -8613,14 +8247,13 @@
     </row>
     <row r="179" spans="1:18" ht="41.4">
       <c r="A179" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B179" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>233</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>16</v>
@@ -8635,12 +8268,11 @@
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
       <c r="L179" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M179" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N179" s="10"/>
       <c r="O179" s="10"/>
@@ -8650,14 +8282,13 @@
     </row>
     <row r="180" spans="1:18" ht="41.4">
       <c r="A180" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B180" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>234</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>16</v>
@@ -8672,12 +8303,11 @@
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
       <c r="L180" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M180" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M180" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N180" s="10"/>
       <c r="O180" s="10"/>
@@ -8687,14 +8317,13 @@
     </row>
     <row r="181" spans="1:18" ht="41.4">
       <c r="A181" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B181" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>235</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>16</v>
@@ -8709,12 +8338,11 @@
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
       <c r="L181" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M181" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N181" s="10"/>
       <c r="O181" s="10"/>
@@ -8724,14 +8352,13 @@
     </row>
     <row r="182" spans="1:18" ht="41.4">
       <c r="A182" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B182" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>236</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>16</v>
@@ -8746,12 +8373,11 @@
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
       <c r="L182" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M182" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M182" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N182" s="10"/>
       <c r="O182" s="10"/>
@@ -8761,14 +8387,13 @@
     </row>
     <row r="183" spans="1:18" ht="41.4">
       <c r="A183" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B183" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>237</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>16</v>
@@ -8783,12 +8408,11 @@
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
       <c r="L183" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M183" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M183" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N183" s="10"/>
       <c r="O183" s="10"/>
@@ -8798,14 +8422,13 @@
     </row>
     <row r="184" spans="1:18" ht="41.4">
       <c r="A184" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B184" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>238</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>16</v>
@@ -8820,12 +8443,11 @@
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
       <c r="L184" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M184" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M184" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N184" s="10"/>
       <c r="O184" s="10"/>
@@ -8835,14 +8457,13 @@
     </row>
     <row r="185" spans="1:18" ht="41.4">
       <c r="A185" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B185" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>239</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>16</v>
@@ -8857,12 +8478,11 @@
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
       <c r="L185" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M185" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M185" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N185" s="10"/>
       <c r="O185" s="10"/>
@@ -8872,14 +8492,13 @@
     </row>
     <row r="186" spans="1:18" ht="41.4">
       <c r="A186" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B186" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>240</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>16</v>
@@ -8894,12 +8513,11 @@
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
       <c r="L186" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M186" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M186" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N186" s="10"/>
       <c r="O186" s="10"/>
@@ -8909,14 +8527,13 @@
     </row>
     <row r="187" spans="1:18" ht="41.4">
       <c r="A187" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B187" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>241</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>16</v>
@@ -8931,12 +8548,11 @@
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
       <c r="L187" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M187" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M187" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N187" s="10"/>
       <c r="O187" s="10"/>
@@ -8946,14 +8562,13 @@
     </row>
     <row r="188" spans="1:18" ht="41.4">
       <c r="A188" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B188" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>242</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>16</v>
@@ -8968,12 +8583,11 @@
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M188" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M188" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N188" s="10"/>
       <c r="O188" s="10"/>
@@ -8983,11 +8597,10 @@
     </row>
     <row r="189" spans="1:18" ht="41.4">
       <c r="A189" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B189" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>243</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C189" s="19" t="s">
         <v>28</v>
@@ -9005,12 +8618,11 @@
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
       <c r="L189" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M189" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M189" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N189" s="10"/>
       <c r="O189" s="10"/>
@@ -9020,14 +8632,13 @@
     </row>
     <row r="190" spans="1:18" ht="55.2">
       <c r="A190" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B190" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>244</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>16</v>
@@ -9042,12 +8653,11 @@
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M190" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M190" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N190" s="10"/>
       <c r="O190" s="10"/>
@@ -9057,14 +8667,13 @@
     </row>
     <row r="191" spans="1:18" ht="55.2">
       <c r="A191" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B191" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>246</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>16</v>
@@ -9079,12 +8688,11 @@
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M191" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M191" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N191" s="10"/>
       <c r="O191" s="10"/>
@@ -9094,14 +8702,13 @@
     </row>
     <row r="192" spans="1:18" ht="55.2">
       <c r="A192" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B192" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>247</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>16</v>
@@ -9116,12 +8723,11 @@
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
       <c r="L192" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M192" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M192" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N192" s="10"/>
       <c r="O192" s="10"/>
@@ -9131,14 +8737,13 @@
     </row>
     <row r="193" spans="1:18" ht="55.2">
       <c r="A193" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B193" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>248</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>16</v>
@@ -9153,12 +8758,11 @@
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
       <c r="L193" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M193" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M193" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N193" s="10"/>
       <c r="O193" s="10"/>
@@ -9168,14 +8772,13 @@
     </row>
     <row r="194" spans="1:18" ht="55.2">
       <c r="A194" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B194" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>249</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>16</v>
@@ -9190,12 +8793,11 @@
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M194" s="9" t="str">
-        <f t="shared" si="6"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M194" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N194" s="10"/>
       <c r="O194" s="10"/>
@@ -9205,11 +8807,10 @@
     </row>
     <row r="195" spans="1:18" ht="55.2">
       <c r="A195" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B195" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>250</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C195" s="19" t="s">
         <v>18</v>
@@ -9223,44 +8824,37 @@
       <c r="H195" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I195" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="J195" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K195" s="17" t="s">
-        <v>232</v>
-      </c>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+      <c r="K195" s="17"/>
       <c r="L195" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>CONFLICT</v>
       </c>
       <c r="M195" s="15" t="s">
         <v>58</v>
       </c>
       <c r="N195" s="15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O195" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P195" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q195" s="11"/>
       <c r="R195" s="11"/>
     </row>
     <row r="196" spans="1:18" ht="55.2">
       <c r="A196" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B196" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>252</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>16</v>
@@ -9275,12 +8869,11 @@
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
       <c r="L196" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M196" s="9" t="str">
-        <f t="shared" ref="M196:M204" si="7">IF(L196="",D196,"DA INSERIRE")</f>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M196" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N196" s="10"/>
       <c r="O196" s="10"/>
@@ -9290,14 +8883,13 @@
     </row>
     <row r="197" spans="1:18" ht="55.2">
       <c r="A197" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="B197" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>253</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>16</v>
@@ -9312,12 +8904,11 @@
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
       <c r="L197" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M197" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M197" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N197" s="10"/>
       <c r="O197" s="10"/>
@@ -9327,14 +8918,13 @@
     </row>
     <row r="198" spans="1:18" ht="55.2">
       <c r="A198" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B198" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>254</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>16</v>
@@ -9349,12 +8939,11 @@
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
       <c r="L198" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M198" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M198" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N198" s="10"/>
       <c r="O198" s="10"/>
@@ -9364,14 +8953,13 @@
     </row>
     <row r="199" spans="1:18" ht="55.2">
       <c r="A199" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B199" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>255</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>16</v>
@@ -9386,12 +8974,11 @@
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
       <c r="L199" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M199" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M199" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N199" s="10"/>
       <c r="O199" s="10"/>
@@ -9401,14 +8988,13 @@
     </row>
     <row r="200" spans="1:18" ht="55.2">
       <c r="A200" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B200" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>256</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>16</v>
@@ -9423,12 +9009,11 @@
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
       <c r="L200" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M200" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M200" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N200" s="10"/>
       <c r="O200" s="10"/>
@@ -9438,14 +9023,13 @@
     </row>
     <row r="201" spans="1:18" ht="55.2">
       <c r="A201" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B201" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>257</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>16</v>
@@ -9460,12 +9044,11 @@
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
       <c r="L201" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M201" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M201" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N201" s="10"/>
       <c r="O201" s="10"/>
@@ -9475,14 +9058,13 @@
     </row>
     <row r="202" spans="1:18" ht="55.2">
       <c r="A202" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B202" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>258</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>16</v>
@@ -9497,12 +9079,11 @@
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
       <c r="L202" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M202" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M202" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N202" s="10"/>
       <c r="O202" s="10"/>
@@ -9512,14 +9093,13 @@
     </row>
     <row r="203" spans="1:18" ht="55.2">
       <c r="A203" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B203" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>259</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>16</v>
@@ -9534,12 +9114,11 @@
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
       <c r="L203" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M203" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M203" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N203" s="10"/>
       <c r="O203" s="10"/>
@@ -9549,76 +9128,73 @@
     </row>
     <row r="204" spans="1:18" ht="69">
       <c r="A204" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B204" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>260</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H204" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I204" s="7"/>
-      <c r="J204" s="7"/>
-      <c r="K204" s="7"/>
+      <c r="I204" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J204" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K204" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="L204" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M204" s="9" t="str">
-        <f t="shared" si="7"/>
-        <v>YES</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M204" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="N204" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O204" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P204" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q204" s="11"/>
       <c r="R204" s="11"/>
     </row>
-    <row r="205" spans="1:18" ht="69">
+    <row r="205" spans="1:18" ht="55.2">
       <c r="A205" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B205" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>264</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D205" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E205" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="F205" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G205" s="16" t="s">
-        <v>201</v>
-      </c>
+      <c r="E205" s="16"/>
+      <c r="F205" s="16"/>
+      <c r="G205" s="16"/>
       <c r="H205" s="17" t="s">
         <v>16</v>
       </c>
@@ -9626,34 +9202,33 @@
       <c r="J205" s="18"/>
       <c r="K205" s="18"/>
       <c r="L205" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>CONFLICT</v>
       </c>
       <c r="M205" s="15" t="s">
         <v>58</v>
       </c>
       <c r="N205" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O205" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P205" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q205" s="11"/>
       <c r="R205" s="11"/>
     </row>
     <row r="206" spans="1:18" ht="55.2">
       <c r="A206" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B206" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>265</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>16</v>
@@ -9668,12 +9243,11 @@
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
       <c r="L206" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M206" s="9" t="str">
-        <f t="shared" ref="M206:M228" si="8">IF(L206="",D206,"DA INSERIRE")</f>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M206" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N206" s="10"/>
       <c r="O206" s="10"/>
@@ -9683,14 +9257,13 @@
     </row>
     <row r="207" spans="1:18" ht="55.2">
       <c r="A207" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B207" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>266</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>16</v>
@@ -9705,12 +9278,11 @@
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
       <c r="L207" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M207" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M207" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N207" s="10"/>
       <c r="O207" s="10"/>
@@ -9720,14 +9292,13 @@
     </row>
     <row r="208" spans="1:18" ht="55.2">
       <c r="A208" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B208" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>267</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D208" s="5" t="s">
         <v>16</v>
@@ -9742,12 +9313,11 @@
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
       <c r="L208" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M208" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M208" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N208" s="10"/>
       <c r="O208" s="10"/>
@@ -9757,14 +9327,13 @@
     </row>
     <row r="209" spans="1:18" ht="55.2">
       <c r="A209" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B209" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>268</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>16</v>
@@ -9779,12 +9348,11 @@
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
       <c r="L209" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M209" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M209" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N209" s="10"/>
       <c r="O209" s="10"/>
@@ -9794,14 +9362,13 @@
     </row>
     <row r="210" spans="1:18" ht="55.2">
       <c r="A210" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B210" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>269</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>16</v>
@@ -9816,12 +9383,11 @@
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
       <c r="L210" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M210" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M210" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N210" s="10"/>
       <c r="O210" s="10"/>
@@ -9831,14 +9397,13 @@
     </row>
     <row r="211" spans="1:18" ht="55.2">
       <c r="A211" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B211" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>270</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>16</v>
@@ -9853,12 +9418,11 @@
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
       <c r="L211" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M211" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M211" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N211" s="10"/>
       <c r="O211" s="10"/>
@@ -9868,14 +9432,13 @@
     </row>
     <row r="212" spans="1:18" ht="55.2">
       <c r="A212" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B212" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>271</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>16</v>
@@ -9890,12 +9453,11 @@
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
       <c r="L212" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M212" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M212" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N212" s="10"/>
       <c r="O212" s="10"/>
@@ -9905,14 +9467,13 @@
     </row>
     <row r="213" spans="1:18" ht="55.2">
       <c r="A213" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B213" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>272</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>16</v>
@@ -9927,12 +9488,11 @@
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
       <c r="L213" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M213" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M213" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N213" s="10"/>
       <c r="O213" s="10"/>
@@ -9942,14 +9502,13 @@
     </row>
     <row r="214" spans="1:18" ht="55.2">
       <c r="A214" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B214" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>273</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>16</v>
@@ -9964,12 +9523,11 @@
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
       <c r="L214" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M214" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M214" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N214" s="10"/>
       <c r="O214" s="10"/>
@@ -9979,14 +9537,13 @@
     </row>
     <row r="215" spans="1:18" ht="55.2">
       <c r="A215" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B215" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>274</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>16</v>
@@ -10001,12 +9558,11 @@
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
       <c r="L215" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M215" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M215" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N215" s="10"/>
       <c r="O215" s="10"/>
@@ -10016,14 +9572,13 @@
     </row>
     <row r="216" spans="1:18" ht="55.2">
       <c r="A216" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B216" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>275</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>16</v>
@@ -10038,12 +9593,11 @@
       <c r="J216" s="7"/>
       <c r="K216" s="7"/>
       <c r="L216" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M216" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M216" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N216" s="10"/>
       <c r="O216" s="10"/>
@@ -10053,14 +9607,13 @@
     </row>
     <row r="217" spans="1:18" ht="55.2">
       <c r="A217" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B217" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>276</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>16</v>
@@ -10075,12 +9628,11 @@
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
       <c r="L217" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M217" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M217" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N217" s="10"/>
       <c r="O217" s="10"/>
@@ -10090,14 +9642,13 @@
     </row>
     <row r="218" spans="1:18" ht="55.2">
       <c r="A218" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B218" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>277</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>16</v>
@@ -10112,12 +9663,11 @@
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
       <c r="L218" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M218" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M218" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N218" s="10"/>
       <c r="O218" s="10"/>
@@ -10127,11 +9677,10 @@
     </row>
     <row r="219" spans="1:18" ht="55.2">
       <c r="A219" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B219" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>278</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="C219" s="19" t="s">
         <v>14</v>
@@ -10149,12 +9698,11 @@
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
       <c r="L219" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M219" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M219" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N219" s="10"/>
       <c r="O219" s="10"/>
@@ -10164,11 +9712,10 @@
     </row>
     <row r="220" spans="1:18" ht="55.2">
       <c r="A220" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B220" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>279</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C220" s="19" t="s">
         <v>65</v>
@@ -10177,53 +9724,51 @@
         <v>58</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H220" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J220" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L220" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M220" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>YES</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M220" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="N220" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O220" s="15" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P220" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q220" s="11"/>
       <c r="R220" s="11"/>
     </row>
     <row r="221" spans="1:18" ht="55.2">
       <c r="A221" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B221" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>284</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C221" s="19" t="s">
         <v>47</v>
@@ -10241,12 +9786,11 @@
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
       <c r="L221" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M221" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M221" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N221" s="24"/>
       <c r="O221" s="10"/>
@@ -10256,14 +9800,13 @@
     </row>
     <row r="222" spans="1:18" ht="55.2">
       <c r="A222" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B222" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>285</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>16</v>
@@ -10278,12 +9821,11 @@
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
       <c r="L222" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M222" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M222" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N222" s="25"/>
       <c r="O222" s="10"/>
@@ -10293,11 +9835,10 @@
     </row>
     <row r="223" spans="1:18" ht="55.2">
       <c r="A223" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B223" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>286</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C223" s="19" t="s">
         <v>14</v>
@@ -10315,12 +9856,11 @@
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
       <c r="L223" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M223" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M223" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N223" s="26"/>
       <c r="O223" s="10"/>
@@ -10330,11 +9870,10 @@
     </row>
     <row r="224" spans="1:18" ht="55.2">
       <c r="A224" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B224" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>287</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C224" s="19" t="s">
         <v>47</v>
@@ -10352,12 +9891,11 @@
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
       <c r="L224" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M224" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M224" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N224" s="27"/>
       <c r="O224" s="10"/>
@@ -10367,11 +9905,10 @@
     </row>
     <row r="225" spans="1:18" ht="69">
       <c r="A225" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B225" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>288</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C225" s="19" t="s">
         <v>34</v>
@@ -10389,12 +9926,11 @@
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
       <c r="L225" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M225" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M225" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N225" s="27"/>
       <c r="O225" s="10"/>
@@ -10404,11 +9940,10 @@
     </row>
     <row r="226" spans="1:18" ht="69">
       <c r="A226" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="B226" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Issue</v>
+        <v>289</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="C226" s="19" t="s">
         <v>34</v>
@@ -10426,12 +9961,11 @@
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
       <c r="L226" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M226" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M226" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N226" s="27"/>
       <c r="O226" s="10"/>
@@ -10441,11 +9975,10 @@
     </row>
     <row r="227" spans="1:18" ht="69">
       <c r="A227" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B227" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>290</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C227" s="19" t="s">
         <v>22</v>
@@ -10463,12 +9996,11 @@
       <c r="J227" s="7"/>
       <c r="K227" s="7"/>
       <c r="L227" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M227" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M227" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N227" s="27"/>
       <c r="O227" s="10"/>
@@ -10478,11 +10010,10 @@
     </row>
     <row r="228" spans="1:18" ht="69">
       <c r="A228" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B228" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PR</v>
+        <v>291</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="C228" s="19" t="s">
         <v>14</v>
@@ -10500,12 +10031,11 @@
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
       <c r="L228" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M228" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v>NO</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M228" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="N228" s="27"/>
       <c r="O228" s="10"/>
@@ -11433,24 +10963,18 @@
   <pageSetup orientation="landscape"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>values!$B$8:$B$27</xm:f>
           </x14:formula1>
-          <xm:sqref>O145 O155 O176 O204:O205 F3:F228</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>values!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D228</xm:sqref>
+          <xm:sqref>O145 O155 O176 O204:O205</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>values!$B$33:$B$44</xm:f>
           </x14:formula1>
-          <xm:sqref>P145 P155 P176 P204:P205 G3:G228</xm:sqref>
+          <xm:sqref>P145 P155 P176 P204:P205</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11474,7 +10998,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1">
@@ -11490,10 +11014,10 @@
     <row r="4" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:3" ht="14.25" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1">
@@ -11501,196 +11025,196 @@
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1">
       <c r="A7" s="39" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A8" s="60" t="s">
-        <v>301</v>
+      <c r="A8" s="61" t="s">
+        <v>297</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A9" s="59"/>
+      <c r="B9" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A10" s="59"/>
+      <c r="B10" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A11" s="59"/>
+      <c r="B11" s="43" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="42" t="s">
+      <c r="C11" s="42" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="43" t="s">
+    <row r="12" spans="1:3" ht="57" customHeight="1">
+      <c r="A12" s="59"/>
+      <c r="B12" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="C10" s="42" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A13" s="59"/>
+      <c r="B13" s="43" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A11" s="58"/>
-      <c r="B11" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="C11" s="42" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A14" s="60"/>
+      <c r="B14" s="43" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="57" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="42" t="s">
+      <c r="C14" s="42" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="43" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A15" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="B15" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="43" t="s">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A16" s="59"/>
+      <c r="B16" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C16" s="42" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A15" s="60" t="s">
+    <row r="17" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="42" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="43" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A16" s="58"/>
-      <c r="B16" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="C16" s="42" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="60"/>
+      <c r="B19" s="43" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A17" s="58"/>
-      <c r="B17" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="42" t="s">
+      <c r="C19" s="42" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A18" s="58"/>
-      <c r="B18" s="43" t="s">
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="B20" s="43" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" s="59"/>
-      <c r="B19" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="C19" s="42" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="59"/>
+      <c r="B21" s="43" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A20" s="60" t="s">
+      <c r="C21" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="B20" s="43" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" s="59"/>
+      <c r="B22" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C22" s="42" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="43" t="s">
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" s="59"/>
+      <c r="B23" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="C21" s="42" t="s">
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="59"/>
+      <c r="B24" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="42" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="43" t="s">
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" s="59"/>
+      <c r="B25" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C25" s="42" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" s="58"/>
-      <c r="B23" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="C23" s="42" t="s">
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" s="60"/>
+      <c r="B26" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="44"/>
       <c r="B27" s="45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C27" s="38"/>
     </row>
@@ -11698,10 +11222,10 @@
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="28.5" customHeight="1">
       <c r="A30" s="37" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -11710,124 +11234,124 @@
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="39" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A34" s="59"/>
+      <c r="B34" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A35" s="59"/>
+      <c r="B35" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="42" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A36" s="60"/>
+      <c r="B36" s="43" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A34" s="58"/>
-      <c r="B34" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="42" t="s">
+      <c r="C36" s="42" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="43" t="s">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A37" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="B37" s="43" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A36" s="59"/>
-      <c r="B36" s="43" t="s">
+      <c r="C37" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="C36" s="42" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A38" s="59"/>
+      <c r="B38" s="43" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A37" s="57" t="s">
+      <c r="C38" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="B37" s="43" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A39" s="59"/>
+      <c r="B39" s="43" t="s">
         <v>344</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C39" s="42" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="43" t="s">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A40" s="60"/>
+      <c r="B40" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="C38" s="42" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A41" s="58" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="43" t="s">
+      <c r="B41" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="C39" s="42" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" s="59"/>
+      <c r="B42" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" s="42" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A40" s="59"/>
-      <c r="B40" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A41" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>353</v>
-      </c>
-    </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A43" s="59"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" s="44"/>
       <c r="B44" s="45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C44" s="44"/>
     </row>
